--- a/data/trans_bre/P2A_lim_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.315656686873385</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.476086378032197</v>
+        <v>2.476086378032195</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2360556206174561</v>
@@ -649,7 +649,7 @@
         <v>0.5356870727151898</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2313282320816625</v>
+        <v>0.2313282320816623</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.251750975278038</v>
+        <v>-4.445248513435081</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.413679526086105</v>
+        <v>-1.638425201246555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.088023119060719</v>
+        <v>-0.8976407845085485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.977225991359876</v>
+        <v>-2.302134642894567</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.717217376607735</v>
+        <v>-0.7135532424902016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.09574069536918052</v>
+        <v>-0.1216308190635806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1135180868418398</v>
+        <v>-0.09576451566545109</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.144671890246256</v>
+        <v>-0.1783902895622642</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.369256355273107</v>
+        <v>2.274847584201802</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.22258451692382</v>
+        <v>10.79974008425323</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.155898258402493</v>
+        <v>9.762754630978552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.824270175424671</v>
+        <v>6.481881803011594</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.184138463145626</v>
+        <v>1.083629512626106</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.113374907084726</v>
+        <v>1.09395792942943</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.605918111352592</v>
+        <v>1.602280970342228</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8568885133344227</v>
+        <v>0.8036488856577287</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.193937547658785</v>
+        <v>-3.005577422380277</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.743418767528119</v>
+        <v>-3.496670885040159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.073407569508082</v>
+        <v>-1.496875700741765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.175547704730877</v>
+        <v>-5.456231843198249</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2613322419276768</v>
+        <v>-0.2532276420261306</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3080061794009589</v>
+        <v>-0.295460360732165</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.255386009831015</v>
+        <v>-0.2742857895516999</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2348994540155346</v>
+        <v>-0.2482435238059403</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.767136946629083</v>
+        <v>4.928561992502469</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.282665714099581</v>
+        <v>4.397206218632423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.254618947550806</v>
+        <v>4.279365185234064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.295941618508016</v>
+        <v>4.344103841465328</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6169406794247957</v>
+        <v>0.6095359286811397</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5471296619435195</v>
+        <v>0.5675423986960462</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.504115195750892</v>
+        <v>1.529039898930433</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2723055105211078</v>
+        <v>0.2768497814616093</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.164676889258089</v>
+        <v>-2.436341947069166</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.155137618870783</v>
+        <v>-5.2002478107872</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2686855428055437</v>
+        <v>-0.1717067610796013</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.88696920364879</v>
+        <v>-7.742802156530111</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5662852715811809</v>
+        <v>-0.5866541815129754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4283982333421705</v>
+        <v>-0.4343808576502128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1753504580011127</v>
+        <v>-0.1710265652607557</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4140561647847986</v>
+        <v>-0.4178425892538621</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.957341601914409</v>
+        <v>2.85527333221648</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.269582577338733</v>
+        <v>4.573459125324379</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.216336021952663</v>
+        <v>5.885072137531442</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.682886657983916</v>
+        <v>1.56681497241675</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.939468737492267</v>
+        <v>1.943550552932955</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6054745258034727</v>
+        <v>0.6719007759364813</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.866695782023082</v>
+        <v>5.860958483813967</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1265926229393627</v>
+        <v>0.1244394333616567</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.628453674434214</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.347341056478421</v>
+        <v>-1.34734105647842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04962965130008972</v>
@@ -949,7 +949,7 @@
         <v>0.2440537126103774</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1632492208762271</v>
+        <v>-0.1632492208762269</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.122648828345277</v>
+        <v>-2.940413575017265</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.368709362582299</v>
+        <v>1.780888816183108</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.554409501817443</v>
+        <v>-2.361710315359598</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.781177406504388</v>
+        <v>-6.201047482659555</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4399764336039703</v>
+        <v>-0.427702428366855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1157489582651868</v>
+        <v>0.1576315708894974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1934105353971995</v>
+        <v>-0.1844446685528049</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5039267838608105</v>
+        <v>-0.5154057777853337</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.585699627392213</v>
+        <v>3.740400018088589</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.58441450085633</v>
+        <v>10.723431948462</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.72997275704493</v>
+        <v>7.766357517099774</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.360675199132285</v>
+        <v>2.323692058973354</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9692499690215181</v>
+        <v>1.054633388699762</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.039794513890175</v>
+        <v>2.006290805363203</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8855306210311352</v>
+        <v>0.9326139279262893</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4626358355647489</v>
+        <v>0.4434229872819251</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.003295175946572388</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3841634775051034</v>
+        <v>0.3841634775051033</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.184343424297305</v>
+        <v>-3.148557694376881</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.076968898632207</v>
+        <v>-6.723934809268443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.417297140867913</v>
+        <v>-5.35598211308025</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.171716101141004</v>
+        <v>-1.042733509618904</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2429099185041421</v>
+        <v>-0.2654241729601354</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2465920551588263</v>
+        <v>-0.2702641337774157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5094727633111854</v>
+        <v>-0.4817434275659844</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1279203315715849</v>
+        <v>-0.1073589698205785</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.74227723344139</v>
+        <v>9.529391740301955</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.4455078353567</v>
+        <v>9.961829644847638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.219803368762981</v>
+        <v>5.366726984978762</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.714356403946111</v>
+        <v>6.843675588838111</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.183196468427102</v>
+        <v>1.393311553195962</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6733489911296844</v>
+        <v>0.6114677570664199</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9471491982150158</v>
+        <v>0.9540198642616159</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.182077978778575</v>
+        <v>1.191880959020245</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>1.549507036390817</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.8692651691463993</v>
+        <v>-0.8692651691464104</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.014626051474299</v>
@@ -1149,7 +1149,7 @@
         <v>0.151244919993433</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.03541731246818721</v>
+        <v>-0.03541731246818766</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.7583329592898626</v>
+        <v>-0.5951826881367644</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.1165849396144698</v>
+        <v>0.5352837689178355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.437724703802271</v>
+        <v>-4.472274509468564</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.046202649397211</v>
+        <v>-7.273034966311741</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4551951450287339</v>
+        <v>-0.416016473839873</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0401979602786849</v>
+        <v>0.03507529590296589</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3392348745715749</v>
+        <v>-0.3496297680985507</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.250331790308859</v>
+        <v>-0.2619270386094605</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.362763411264488</v>
+        <v>4.428673835430557</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.71957078270614</v>
+        <v>10.81636036481332</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.102544078701155</v>
+        <v>6.749760232517342</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.371587448073659</v>
+        <v>5.228836033500849</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>8.761435061046406</v>
+        <v>10.31370333557934</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.950828187403208</v>
+        <v>2.002149962533793</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.958312313280559</v>
+        <v>0.8958607629271702</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2491346746532666</v>
+        <v>0.2482393723792042</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.023000931879403</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.553701507603649</v>
+        <v>3.553701507603646</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1289033460279874</v>
@@ -1249,7 +1249,7 @@
         <v>0.372382864701178</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2205611664847195</v>
+        <v>0.2205611664847193</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.110595160326518</v>
+        <v>-1.954932457887638</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.557473918268582</v>
+        <v>-2.101560875340742</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9037507362401036</v>
+        <v>-0.7379934818118469</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4758759601596765</v>
+        <v>-0.7059994012202723</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2473895573336159</v>
+        <v>-0.2403499029532853</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2614188401599408</v>
+        <v>-0.226589598349518</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1397705019670455</v>
+        <v>-0.1132314652309254</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02672290851738054</v>
+        <v>-0.03855032147705225</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.960634416259024</v>
+        <v>3.807477856068951</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.264761790672178</v>
+        <v>4.416897451057715</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.838302122561104</v>
+        <v>4.887001930310923</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.479436854184724</v>
+        <v>7.148684895276279</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7565797750779236</v>
+        <v>0.6821731144411606</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6608808857771898</v>
+        <v>0.6270135944317059</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.115884088883335</v>
+        <v>1.189023840036718</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5503375251605608</v>
+        <v>0.516942865036683</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>0.3469597274638109</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.203445095473919</v>
+        <v>2.203445095473918</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4126224912617961</v>
@@ -1349,7 +1349,7 @@
         <v>0.03989016455731439</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2819290815418561</v>
+        <v>0.281929081541856</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1199014272455432</v>
+        <v>0.01171599688405747</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.174012878914504</v>
+        <v>-1.991149132292793</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.675176721062589</v>
+        <v>-2.420065026920612</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.4157506245033649</v>
+        <v>-0.4208121888222588</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.009040638309857218</v>
+        <v>-0.009441766487687074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2141553583252615</v>
+        <v>-0.2154368339717111</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.262500075712285</v>
+        <v>-0.2394477192285885</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06186136352201607</v>
+        <v>-0.04782178186686172</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.462497459102323</v>
+        <v>6.431566926139876</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.52279174108657</v>
+        <v>3.581199971890658</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.034674653991641</v>
+        <v>3.297756806547374</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.839836034656525</v>
+        <v>4.407306179899317</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9180149711558787</v>
+        <v>0.9375736699673987</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5484242105475896</v>
+        <v>0.5696739031404364</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.412569003843609</v>
+        <v>0.4510072458311323</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7373387381945863</v>
+        <v>0.6696149818044855</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>1.666701758529006</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.9597266718890801</v>
+        <v>0.9597266718890829</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2072621595395545</v>
@@ -1449,7 +1449,7 @@
         <v>0.2365919974138433</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.0708789404583814</v>
+        <v>0.07087894045838161</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1759059023563641</v>
+        <v>0.227992101711534</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6461412537286856</v>
+        <v>0.505946950649955</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2025611585343983</v>
+        <v>0.3290916681941051</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5666379490316752</v>
+        <v>-0.6043985277135339</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02377118636118043</v>
+        <v>0.02736787634645289</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06147719022858623</v>
+        <v>0.04883604993858055</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02602307355575393</v>
+        <v>0.04333241668246197</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.04071064359982048</v>
+        <v>-0.04101446023452783</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.864098767530309</v>
+        <v>2.706188937672979</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.730387987962729</v>
+        <v>3.572842821523676</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.000606439706746</v>
+        <v>3.053446168883296</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.549021134330061</v>
+        <v>2.398031805489045</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4779128464734936</v>
+        <v>0.4531655125948269</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4289791956112965</v>
+        <v>0.4135677299227074</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4617416966861266</v>
+        <v>0.4798544409870482</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2023793746596943</v>
+        <v>0.1891293843554564</v>
       </c>
     </row>
     <row r="31">
